--- a/MemoryMap/IO.xlsx
+++ b/MemoryMap/IO.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEB3F4D-A704-4DD4-B234-1BDF67BFA1F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NI.1" sheetId="6" r:id="rId1"/>
@@ -14,12 +15,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="Q14" authorId="0">
+    <comment ref="Q14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -35,7 +36,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q15" authorId="0">
+    <comment ref="Q15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -50,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q16" authorId="0">
+    <comment ref="Q16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -66,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q31" authorId="0">
+    <comment ref="Q31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -82,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q32" authorId="0">
+    <comment ref="Q32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -97,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q33" authorId="0">
+    <comment ref="Q33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -113,7 +114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q48" authorId="0">
+    <comment ref="Q48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -129,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q49" authorId="0">
+    <comment ref="Q49" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -144,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q50" authorId="0">
+    <comment ref="Q50" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -160,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q65" authorId="0">
+    <comment ref="Q65" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -177,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q66" authorId="0">
+    <comment ref="Q66" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -192,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q67" authorId="0">
+    <comment ref="Q67" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -208,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q82" authorId="0">
+    <comment ref="Q82" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -224,7 +225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q83" authorId="0">
+    <comment ref="Q83" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -239,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q84" authorId="0">
+    <comment ref="Q84" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -255,7 +256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q99" authorId="0">
+    <comment ref="Q99" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -271,7 +272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q100" authorId="0">
+    <comment ref="Q100" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -286,7 +287,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q101" authorId="0">
+    <comment ref="Q101" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -302,7 +303,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q116" authorId="0">
+    <comment ref="Q116" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -318,7 +319,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q117" authorId="0">
+    <comment ref="Q117" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -333,7 +334,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q118" authorId="0">
+    <comment ref="Q118" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -349,7 +350,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q133" authorId="0">
+    <comment ref="Q133" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -365,7 +366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q134" authorId="0">
+    <comment ref="Q134" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -380,7 +381,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q135" authorId="0">
+    <comment ref="Q135" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -396,7 +397,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q150" authorId="0">
+    <comment ref="Q150" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -412,7 +413,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q151" authorId="0">
+    <comment ref="Q151" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -427,7 +428,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q152" authorId="0">
+    <comment ref="Q152" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -443,7 +444,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q167" authorId="0">
+    <comment ref="Q167" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -459,7 +460,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q168" authorId="0">
+    <comment ref="Q168" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -474,7 +475,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q169" authorId="0">
+    <comment ref="Q169" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -490,7 +491,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q185" authorId="0">
+    <comment ref="Q185" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -506,7 +507,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q186" authorId="0">
+    <comment ref="Q186" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
       <text>
         <r>
           <rPr>
@@ -521,7 +522,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q187" authorId="0">
+    <comment ref="Q187" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
       <text>
         <r>
           <rPr>
@@ -1087,8 +1088,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1134,7 +1135,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1156,6 +1157,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1270,7 +1277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1304,8 +1311,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1317,7 +1342,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1325,30 +1350,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1369,7 +1385,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1420,7 +1442,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1471,7 +1499,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1522,7 +1556,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1573,7 +1613,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1624,7 +1670,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1675,7 +1727,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1726,7 +1784,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1777,7 +1841,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1828,7 +1898,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Straight Arrow Connector 11"/>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1879,7 +1955,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1930,7 +2012,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Straight Arrow Connector 13"/>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1981,7 +2069,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2032,7 +2126,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Straight Arrow Connector 15"/>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2083,7 +2183,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Straight Arrow Connector 16"/>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2134,7 +2240,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2185,7 +2297,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Straight Arrow Connector 18"/>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2236,7 +2354,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="Straight Arrow Connector 19"/>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2287,7 +2411,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Straight Arrow Connector 20"/>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2338,7 +2468,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Straight Arrow Connector 21"/>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2389,7 +2525,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Straight Arrow Connector 22"/>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2440,7 +2582,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="Straight Arrow Connector 23"/>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2491,7 +2639,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Straight Arrow Connector 24"/>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2542,7 +2696,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="Straight Arrow Connector 25"/>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2593,7 +2753,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="Straight Arrow Connector 26"/>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2644,7 +2810,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="Straight Arrow Connector 27"/>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2695,7 +2867,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="Straight Arrow Connector 28"/>
+        <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2746,7 +2924,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="Straight Arrow Connector 29"/>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2797,7 +2981,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="Straight Arrow Connector 30"/>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2848,7 +3038,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="Straight Arrow Connector 31"/>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2899,7 +3095,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="Straight Arrow Connector 32"/>
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2950,7 +3152,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="Straight Arrow Connector 33"/>
+        <xdr:cNvPr id="34" name="Straight Arrow Connector 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3001,7 +3209,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="Straight Arrow Connector 34"/>
+        <xdr:cNvPr id="35" name="Straight Arrow Connector 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3083,7 +3297,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3115,9 +3329,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3149,6 +3381,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3324,14 +3574,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:U187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="X169" sqref="X169"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="17" width="4.7109375" customWidth="1"/>
@@ -3339,7 +3589,7 @@
     <col min="20" max="20" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" ht="15.75">
+    <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -3357,7 +3607,7 @@
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
     </row>
-    <row r="3" spans="1:21" ht="18.75" customHeight="1">
+    <row r="3" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -3413,7 +3663,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="18.75" customHeight="1">
+    <row r="4" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -3440,7 +3690,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="18.75" customHeight="1">
+    <row r="5" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -3465,7 +3715,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="18.75" customHeight="1">
+    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -3490,7 +3740,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="18.75" customHeight="1">
+    <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -3515,7 +3765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="18.75" customHeight="1">
+    <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -3537,7 +3787,7 @@
       <c r="Q8" s="14"/>
       <c r="R8" s="18"/>
     </row>
-    <row r="9" spans="1:21" ht="18.75" customHeight="1">
+    <row r="9" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -3559,7 +3809,7 @@
       <c r="Q9" s="14"/>
       <c r="R9" s="18"/>
     </row>
-    <row r="10" spans="1:21" ht="18.75" customHeight="1">
+    <row r="10" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -3581,7 +3831,7 @@
       <c r="Q10" s="14"/>
       <c r="R10" s="18"/>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -3603,11 +3853,11 @@
       <c r="Q11" s="9"/>
       <c r="R11" s="18"/>
       <c r="S11" s="10"/>
-      <c r="T11" s="20" t="s">
+      <c r="T11" s="26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -3633,9 +3883,9 @@
       <c r="S12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="T12" s="21"/>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="T12" s="27"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -3661,9 +3911,9 @@
       <c r="S13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="T13" s="21"/>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="T13" s="27"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
@@ -3689,12 +3939,12 @@
       <c r="S14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T14" s="21"/>
+      <c r="T14" s="27"/>
       <c r="U14" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>38</v>
       </c>
@@ -3720,12 +3970,12 @@
       <c r="S15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T15" s="21"/>
+      <c r="T15" s="27"/>
       <c r="U15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
@@ -3751,12 +4001,12 @@
       <c r="S16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T16" s="21"/>
+      <c r="T16" s="27"/>
       <c r="U16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
@@ -3778,9 +4028,9 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
-      <c r="T17" s="22"/>
-    </row>
-    <row r="20" spans="1:21" ht="15.75">
+      <c r="T17" s="28"/>
+    </row>
+    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -3836,7 +4086,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15" customHeight="1">
+    <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>82</v>
       </c>
@@ -3862,11 +4112,11 @@
       <c r="S21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="T21" s="19" t="s">
+      <c r="T21" s="29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15" customHeight="1">
+    <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>83</v>
       </c>
@@ -3890,9 +4140,9 @@
       <c r="S22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="T22" s="19"/>
-    </row>
-    <row r="23" spans="1:21" ht="15" customHeight="1">
+      <c r="T22" s="29"/>
+    </row>
+    <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>84</v>
       </c>
@@ -3914,9 +4164,9 @@
       <c r="Q23" s="14"/>
       <c r="R23" s="18"/>
       <c r="S23" s="6"/>
-      <c r="T23" s="19"/>
-    </row>
-    <row r="24" spans="1:21" ht="15" customHeight="1">
+      <c r="T23" s="29"/>
+    </row>
+    <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>85</v>
       </c>
@@ -3940,12 +4190,12 @@
       <c r="S24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T24" s="19"/>
+      <c r="T24" s="29"/>
       <c r="U24" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15" customHeight="1">
+    <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>86</v>
       </c>
@@ -3969,12 +4219,12 @@
       <c r="S25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T25" s="19"/>
+      <c r="T25" s="29"/>
       <c r="U25" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15.75" customHeight="1">
+    <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>87</v>
       </c>
@@ -3998,12 +4248,12 @@
       <c r="S26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T26" s="19"/>
+      <c r="T26" s="29"/>
       <c r="U26" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="15.75" customHeight="1">
+    <row r="27" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>88</v>
       </c>
@@ -4025,9 +4275,9 @@
       <c r="Q27" s="14"/>
       <c r="R27" s="18"/>
       <c r="S27" s="2"/>
-      <c r="T27" s="19"/>
-    </row>
-    <row r="28" spans="1:21">
+      <c r="T27" s="29"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>89</v>
       </c>
@@ -4049,9 +4299,9 @@
       <c r="Q28" s="9"/>
       <c r="R28" s="18"/>
       <c r="S28" s="2"/>
-      <c r="T28" s="19"/>
-    </row>
-    <row r="29" spans="1:21">
+      <c r="T28" s="29"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>90</v>
       </c>
@@ -4075,9 +4325,9 @@
         <v>20</v>
       </c>
       <c r="S29" s="2"/>
-      <c r="T29" s="19"/>
-    </row>
-    <row r="30" spans="1:21">
+      <c r="T29" s="29"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>91</v>
       </c>
@@ -4101,9 +4351,9 @@
         <v>28</v>
       </c>
       <c r="S30" s="2"/>
-      <c r="T30" s="19"/>
-    </row>
-    <row r="31" spans="1:21" ht="15" customHeight="1">
+      <c r="T30" s="29"/>
+    </row>
+    <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>41</v>
       </c>
@@ -4129,12 +4379,12 @@
       <c r="S31" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T31" s="19"/>
+      <c r="T31" s="29"/>
       <c r="U31" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15" customHeight="1">
+    <row r="32" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>42</v>
       </c>
@@ -4160,12 +4410,12 @@
       <c r="S32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T32" s="19"/>
+      <c r="T32" s="29"/>
       <c r="U32" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="21" customHeight="1">
+    <row r="33" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>43</v>
       </c>
@@ -4191,12 +4441,12 @@
       <c r="S33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T33" s="19"/>
+      <c r="T33" s="29"/>
       <c r="U33" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="21" customHeight="1">
+    <row r="34" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>44</v>
       </c>
@@ -4218,9 +4468,9 @@
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
-      <c r="T34" s="19"/>
-    </row>
-    <row r="35" spans="1:21">
+      <c r="T34" s="29"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -4240,7 +4490,7 @@
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -4260,7 +4510,7 @@
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
     </row>
-    <row r="37" spans="1:21" ht="15.75">
+    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -4316,7 +4566,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="15.75" customHeight="1">
+    <row r="38" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>92</v>
       </c>
@@ -4340,11 +4590,11 @@
         <v>164</v>
       </c>
       <c r="S38" s="2"/>
-      <c r="T38" s="24" t="s">
+      <c r="T38" s="30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="15.75" customHeight="1">
+    <row r="39" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>93</v>
       </c>
@@ -4366,9 +4616,9 @@
       <c r="Q39" s="14"/>
       <c r="R39" s="18"/>
       <c r="S39" s="2"/>
-      <c r="T39" s="25"/>
-    </row>
-    <row r="40" spans="1:21" ht="15.75" customHeight="1">
+      <c r="T39" s="31"/>
+    </row>
+    <row r="40" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>94</v>
       </c>
@@ -4390,9 +4640,9 @@
       <c r="Q40" s="14"/>
       <c r="R40" s="18"/>
       <c r="S40" s="6"/>
-      <c r="T40" s="25"/>
-    </row>
-    <row r="41" spans="1:21" ht="15.75" customHeight="1">
+      <c r="T40" s="31"/>
+    </row>
+    <row r="41" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>95</v>
       </c>
@@ -4414,9 +4664,9 @@
       <c r="Q41" s="14"/>
       <c r="R41" s="18"/>
       <c r="S41" s="6"/>
-      <c r="T41" s="25"/>
-    </row>
-    <row r="42" spans="1:21" ht="15.75" customHeight="1">
+      <c r="T41" s="31"/>
+    </row>
+    <row r="42" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>96</v>
       </c>
@@ -4438,9 +4688,9 @@
       <c r="Q42" s="14"/>
       <c r="R42" s="18"/>
       <c r="S42" s="6"/>
-      <c r="T42" s="25"/>
-    </row>
-    <row r="43" spans="1:21" ht="15.75" customHeight="1">
+      <c r="T42" s="31"/>
+    </row>
+    <row r="43" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>97</v>
       </c>
@@ -4462,9 +4712,9 @@
       <c r="Q43" s="14"/>
       <c r="R43" s="18"/>
       <c r="S43" s="6"/>
-      <c r="T43" s="25"/>
-    </row>
-    <row r="44" spans="1:21" ht="15.75" customHeight="1">
+      <c r="T43" s="31"/>
+    </row>
+    <row r="44" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>98</v>
       </c>
@@ -4486,9 +4736,9 @@
       <c r="Q44" s="14"/>
       <c r="R44" s="18"/>
       <c r="S44" s="6"/>
-      <c r="T44" s="25"/>
-    </row>
-    <row r="45" spans="1:21" ht="15" customHeight="1">
+      <c r="T44" s="31"/>
+    </row>
+    <row r="45" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>99</v>
       </c>
@@ -4510,9 +4760,9 @@
       <c r="Q45" s="9"/>
       <c r="R45" s="18"/>
       <c r="S45" s="6"/>
-      <c r="T45" s="25"/>
-    </row>
-    <row r="46" spans="1:21" ht="15" customHeight="1">
+      <c r="T45" s="31"/>
+    </row>
+    <row r="46" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>100</v>
       </c>
@@ -4538,9 +4788,9 @@
       <c r="S46" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="T46" s="25"/>
-    </row>
-    <row r="47" spans="1:21" ht="15" customHeight="1">
+      <c r="T46" s="31"/>
+    </row>
+    <row r="47" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>101</v>
       </c>
@@ -4566,9 +4816,9 @@
       <c r="S47" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="T47" s="25"/>
-    </row>
-    <row r="48" spans="1:21" ht="15" customHeight="1">
+      <c r="T47" s="31"/>
+    </row>
+    <row r="48" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>45</v>
       </c>
@@ -4594,12 +4844,12 @@
       <c r="S48" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T48" s="25"/>
+      <c r="T48" s="31"/>
       <c r="U48" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="15" customHeight="1">
+    <row r="49" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>46</v>
       </c>
@@ -4625,12 +4875,12 @@
       <c r="S49" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T49" s="25"/>
+      <c r="T49" s="31"/>
       <c r="U49" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="21" customHeight="1">
+    <row r="50" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>47</v>
       </c>
@@ -4656,12 +4906,12 @@
       <c r="S50" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T50" s="25"/>
+      <c r="T50" s="31"/>
       <c r="U50" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="21" customHeight="1">
+    <row r="51" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>48</v>
       </c>
@@ -4683,9 +4933,9 @@
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
-      <c r="T51" s="25"/>
-    </row>
-    <row r="54" spans="1:21" ht="15.75">
+      <c r="T51" s="31"/>
+    </row>
+    <row r="54" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -4741,11 +4991,11 @@
         <v>17</v>
       </c>
       <c r="S54" s="2"/>
-      <c r="T54" s="19" t="s">
+      <c r="T54" s="29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="15.75">
+    <row r="55" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>18</v>
       </c>
@@ -4769,9 +5019,9 @@
         <v>164</v>
       </c>
       <c r="S55" s="2"/>
-      <c r="T55" s="19"/>
-    </row>
-    <row r="56" spans="1:21" ht="15.75">
+      <c r="T55" s="29"/>
+    </row>
+    <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>25</v>
       </c>
@@ -4793,9 +5043,9 @@
       <c r="Q56" s="14"/>
       <c r="R56" s="18"/>
       <c r="S56" s="2"/>
-      <c r="T56" s="19"/>
-    </row>
-    <row r="57" spans="1:21" ht="15.75">
+      <c r="T56" s="29"/>
+    </row>
+    <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>26</v>
       </c>
@@ -4817,9 +5067,9 @@
       <c r="Q57" s="14"/>
       <c r="R57" s="18"/>
       <c r="S57" s="2"/>
-      <c r="T57" s="19"/>
-    </row>
-    <row r="58" spans="1:21" ht="15.75">
+      <c r="T57" s="29"/>
+    </row>
+    <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>102</v>
       </c>
@@ -4841,9 +5091,9 @@
       <c r="Q58" s="14"/>
       <c r="R58" s="18"/>
       <c r="S58" s="2"/>
-      <c r="T58" s="19"/>
-    </row>
-    <row r="59" spans="1:21" ht="15.75">
+      <c r="T58" s="29"/>
+    </row>
+    <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>103</v>
       </c>
@@ -4865,9 +5115,9 @@
       <c r="Q59" s="14"/>
       <c r="R59" s="18"/>
       <c r="S59" s="2"/>
-      <c r="T59" s="19"/>
-    </row>
-    <row r="60" spans="1:21" ht="15.75">
+      <c r="T59" s="29"/>
+    </row>
+    <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>104</v>
       </c>
@@ -4889,9 +5139,9 @@
       <c r="Q60" s="14"/>
       <c r="R60" s="18"/>
       <c r="S60" s="2"/>
-      <c r="T60" s="19"/>
-    </row>
-    <row r="61" spans="1:21" ht="15.75">
+      <c r="T60" s="29"/>
+    </row>
+    <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>105</v>
       </c>
@@ -4913,9 +5163,9 @@
       <c r="Q61" s="14"/>
       <c r="R61" s="18"/>
       <c r="S61" s="2"/>
-      <c r="T61" s="19"/>
-    </row>
-    <row r="62" spans="1:21">
+      <c r="T61" s="29"/>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>106</v>
       </c>
@@ -4937,9 +5187,9 @@
       <c r="Q62" s="9"/>
       <c r="R62" s="18"/>
       <c r="S62" s="2"/>
-      <c r="T62" s="19"/>
-    </row>
-    <row r="63" spans="1:21">
+      <c r="T62" s="29"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>107</v>
       </c>
@@ -4965,9 +5215,9 @@
       <c r="S63" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="T63" s="19"/>
-    </row>
-    <row r="64" spans="1:21" ht="15" customHeight="1">
+      <c r="T63" s="29"/>
+    </row>
+    <row r="64" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>108</v>
       </c>
@@ -4993,9 +5243,9 @@
       <c r="S64" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="T64" s="19"/>
-    </row>
-    <row r="65" spans="1:21" ht="15" customHeight="1">
+      <c r="T64" s="29"/>
+    </row>
+    <row r="65" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>49</v>
       </c>
@@ -5021,12 +5271,12 @@
       <c r="S65" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T65" s="19"/>
+      <c r="T65" s="29"/>
       <c r="U65" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:21" ht="15" customHeight="1">
+    <row r="66" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>50</v>
       </c>
@@ -5052,12 +5302,12 @@
       <c r="S66" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T66" s="19"/>
+      <c r="T66" s="29"/>
       <c r="U66" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:21" ht="16.5" customHeight="1">
+    <row r="67" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>51</v>
       </c>
@@ -5083,12 +5333,12 @@
       <c r="S67" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T67" s="19"/>
+      <c r="T67" s="29"/>
       <c r="U67" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:21" ht="21" customHeight="1">
+    <row r="68" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>52</v>
       </c>
@@ -5110,9 +5360,9 @@
       <c r="Q68" s="2"/>
       <c r="R68" s="2"/>
       <c r="S68" s="2"/>
-      <c r="T68" s="19"/>
-    </row>
-    <row r="71" spans="1:21" ht="18.75" customHeight="1">
+      <c r="T68" s="29"/>
+    </row>
+    <row r="71" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>0</v>
       </c>
@@ -5168,7 +5418,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:21" ht="18.75" customHeight="1">
+    <row r="72" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>19</v>
       </c>
@@ -5192,11 +5442,11 @@
         <v>164</v>
       </c>
       <c r="S72" s="2"/>
-      <c r="T72" s="20" t="s">
+      <c r="T72" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:21" ht="18.75" customHeight="1">
+    <row r="73" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>29</v>
       </c>
@@ -5218,9 +5468,9 @@
       <c r="Q73" s="14"/>
       <c r="R73" s="18"/>
       <c r="S73" s="2"/>
-      <c r="T73" s="21"/>
-    </row>
-    <row r="74" spans="1:21" ht="18.75" customHeight="1">
+      <c r="T73" s="27"/>
+    </row>
+    <row r="74" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>30</v>
       </c>
@@ -5242,9 +5492,9 @@
       <c r="Q74" s="14"/>
       <c r="R74" s="18"/>
       <c r="S74" s="2"/>
-      <c r="T74" s="21"/>
-    </row>
-    <row r="75" spans="1:21" ht="18.75" customHeight="1">
+      <c r="T74" s="27"/>
+    </row>
+    <row r="75" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>109</v>
       </c>
@@ -5266,9 +5516,9 @@
       <c r="Q75" s="14"/>
       <c r="R75" s="18"/>
       <c r="S75" s="2"/>
-      <c r="T75" s="21"/>
-    </row>
-    <row r="76" spans="1:21" ht="15.75" customHeight="1">
+      <c r="T75" s="27"/>
+    </row>
+    <row r="76" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>110</v>
       </c>
@@ -5290,9 +5540,9 @@
       <c r="Q76" s="14"/>
       <c r="R76" s="18"/>
       <c r="S76" s="2"/>
-      <c r="T76" s="21"/>
-    </row>
-    <row r="77" spans="1:21" ht="15.75" customHeight="1">
+      <c r="T76" s="27"/>
+    </row>
+    <row r="77" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>111</v>
       </c>
@@ -5314,9 +5564,9 @@
       <c r="Q77" s="14"/>
       <c r="R77" s="18"/>
       <c r="S77" s="2"/>
-      <c r="T77" s="21"/>
-    </row>
-    <row r="78" spans="1:21" ht="15.75" customHeight="1">
+      <c r="T77" s="27"/>
+    </row>
+    <row r="78" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>112</v>
       </c>
@@ -5338,9 +5588,9 @@
       <c r="Q78" s="14"/>
       <c r="R78" s="18"/>
       <c r="S78" s="2"/>
-      <c r="T78" s="21"/>
-    </row>
-    <row r="79" spans="1:21" ht="15" customHeight="1">
+      <c r="T78" s="27"/>
+    </row>
+    <row r="79" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>113</v>
       </c>
@@ -5362,9 +5612,9 @@
       <c r="Q79" s="9"/>
       <c r="R79" s="18"/>
       <c r="S79" s="2"/>
-      <c r="T79" s="21"/>
-    </row>
-    <row r="80" spans="1:21" ht="15" customHeight="1">
+      <c r="T79" s="27"/>
+    </row>
+    <row r="80" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>114</v>
       </c>
@@ -5390,9 +5640,9 @@
       <c r="S80" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="T80" s="21"/>
-    </row>
-    <row r="81" spans="1:21" ht="15" customHeight="1">
+      <c r="T80" s="27"/>
+    </row>
+    <row r="81" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>115</v>
       </c>
@@ -5418,9 +5668,9 @@
       <c r="S81" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="T81" s="21"/>
-    </row>
-    <row r="82" spans="1:21" ht="15" customHeight="1">
+      <c r="T81" s="27"/>
+    </row>
+    <row r="82" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>53</v>
       </c>
@@ -5446,12 +5696,12 @@
       <c r="S82" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T82" s="21"/>
+      <c r="T82" s="27"/>
       <c r="U82" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="83" spans="1:21" ht="15" customHeight="1">
+    <row r="83" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>55</v>
       </c>
@@ -5477,12 +5727,12 @@
       <c r="S83" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T83" s="21"/>
+      <c r="T83" s="27"/>
       <c r="U83" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="84" spans="1:21" ht="18" customHeight="1">
+    <row r="84" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>56</v>
       </c>
@@ -5508,12 +5758,12 @@
       <c r="S84" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T84" s="21"/>
+      <c r="T84" s="27"/>
       <c r="U84" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="85" spans="1:21" ht="18" customHeight="1">
+    <row r="85" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>57</v>
       </c>
@@ -5535,9 +5785,9 @@
       <c r="Q85" s="2"/>
       <c r="R85" s="2"/>
       <c r="S85" s="2"/>
-      <c r="T85" s="22"/>
-    </row>
-    <row r="88" spans="1:21" ht="15.75">
+      <c r="T85" s="28"/>
+    </row>
+    <row r="88" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>0</v>
       </c>
@@ -5593,7 +5843,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:21" ht="15.75">
+    <row r="89" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>24</v>
       </c>
@@ -5617,11 +5867,11 @@
         <v>164</v>
       </c>
       <c r="S89" s="2"/>
-      <c r="T89" s="19" t="s">
+      <c r="T89" s="29" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="90" spans="1:21" ht="15.75">
+    <row r="90" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>33</v>
       </c>
@@ -5643,9 +5893,9 @@
       <c r="Q90" s="14"/>
       <c r="R90" s="18"/>
       <c r="S90" s="2"/>
-      <c r="T90" s="19"/>
-    </row>
-    <row r="91" spans="1:21" ht="15.75">
+      <c r="T90" s="29"/>
+    </row>
+    <row r="91" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>34</v>
       </c>
@@ -5667,9 +5917,9 @@
       <c r="Q91" s="14"/>
       <c r="R91" s="18"/>
       <c r="S91" s="2"/>
-      <c r="T91" s="19"/>
-    </row>
-    <row r="92" spans="1:21" ht="15.75">
+      <c r="T91" s="29"/>
+    </row>
+    <row r="92" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>116</v>
       </c>
@@ -5691,9 +5941,9 @@
       <c r="Q92" s="14"/>
       <c r="R92" s="18"/>
       <c r="S92" s="2"/>
-      <c r="T92" s="19"/>
-    </row>
-    <row r="93" spans="1:21" ht="15.75">
+      <c r="T92" s="29"/>
+    </row>
+    <row r="93" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>117</v>
       </c>
@@ -5715,9 +5965,9 @@
       <c r="Q93" s="14"/>
       <c r="R93" s="18"/>
       <c r="S93" s="2"/>
-      <c r="T93" s="19"/>
-    </row>
-    <row r="94" spans="1:21" ht="15.75">
+      <c r="T93" s="29"/>
+    </row>
+    <row r="94" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>118</v>
       </c>
@@ -5739,9 +5989,9 @@
       <c r="Q94" s="14"/>
       <c r="R94" s="18"/>
       <c r="S94" s="2"/>
-      <c r="T94" s="19"/>
-    </row>
-    <row r="95" spans="1:21" ht="15.75">
+      <c r="T94" s="29"/>
+    </row>
+    <row r="95" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>119</v>
       </c>
@@ -5763,9 +6013,9 @@
       <c r="Q95" s="14"/>
       <c r="R95" s="18"/>
       <c r="S95" s="2"/>
-      <c r="T95" s="19"/>
-    </row>
-    <row r="96" spans="1:21">
+      <c r="T95" s="29"/>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>120</v>
       </c>
@@ -5787,9 +6037,9 @@
       <c r="Q96" s="9"/>
       <c r="R96" s="18"/>
       <c r="S96" s="2"/>
-      <c r="T96" s="19"/>
-    </row>
-    <row r="97" spans="1:21" ht="15" customHeight="1">
+      <c r="T96" s="29"/>
+    </row>
+    <row r="97" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>121</v>
       </c>
@@ -5815,9 +6065,9 @@
       <c r="S97" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="T97" s="19"/>
-    </row>
-    <row r="98" spans="1:21" ht="15" customHeight="1">
+      <c r="T97" s="29"/>
+    </row>
+    <row r="98" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>122</v>
       </c>
@@ -5843,10 +6093,10 @@
       <c r="S98" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="T98" s="19"/>
-    </row>
-    <row r="99" spans="1:21" ht="15" customHeight="1">
-      <c r="A99" s="2" t="s">
+      <c r="T98" s="29"/>
+    </row>
+    <row r="99" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="32" t="s">
         <v>54</v>
       </c>
       <c r="B99" s="6"/>
@@ -5871,12 +6121,12 @@
       <c r="S99" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T99" s="19"/>
+      <c r="T99" s="29"/>
       <c r="U99" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="100" spans="1:21" ht="15" customHeight="1">
+    <row r="100" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>58</v>
       </c>
@@ -5902,12 +6152,12 @@
       <c r="S100" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T100" s="19"/>
+      <c r="T100" s="29"/>
       <c r="U100" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="101" spans="1:21" ht="16.5" customHeight="1">
+    <row r="101" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>59</v>
       </c>
@@ -5933,12 +6183,12 @@
       <c r="S101" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T101" s="19"/>
+      <c r="T101" s="29"/>
       <c r="U101" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="102" spans="1:21" ht="16.5" customHeight="1">
+    <row r="102" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>60</v>
       </c>
@@ -5960,9 +6210,9 @@
       <c r="Q102" s="2"/>
       <c r="R102" s="2"/>
       <c r="S102" s="2"/>
-      <c r="T102" s="19"/>
-    </row>
-    <row r="105" spans="1:21" ht="15.75">
+      <c r="T102" s="29"/>
+    </row>
+    <row r="105" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>0</v>
       </c>
@@ -6018,7 +6268,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="1:21" ht="15.75">
+    <row r="106" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>70</v>
       </c>
@@ -6042,11 +6292,11 @@
         <v>164</v>
       </c>
       <c r="S106" s="17"/>
-      <c r="T106" s="23" t="s">
+      <c r="T106" s="25" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="107" spans="1:21" ht="15.75">
+    <row r="107" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>71</v>
       </c>
@@ -6068,9 +6318,9 @@
       <c r="Q107" s="14"/>
       <c r="R107" s="18"/>
       <c r="S107" s="17"/>
-      <c r="T107" s="23"/>
-    </row>
-    <row r="108" spans="1:21" ht="15.75">
+      <c r="T107" s="25"/>
+    </row>
+    <row r="108" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>72</v>
       </c>
@@ -6092,9 +6342,9 @@
       <c r="Q108" s="14"/>
       <c r="R108" s="18"/>
       <c r="S108" s="17"/>
-      <c r="T108" s="23"/>
-    </row>
-    <row r="109" spans="1:21" ht="15.75">
+      <c r="T108" s="25"/>
+    </row>
+    <row r="109" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>123</v>
       </c>
@@ -6116,9 +6366,9 @@
       <c r="Q109" s="14"/>
       <c r="R109" s="18"/>
       <c r="S109" s="17"/>
-      <c r="T109" s="23"/>
-    </row>
-    <row r="110" spans="1:21" ht="15.75">
+      <c r="T109" s="25"/>
+    </row>
+    <row r="110" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>124</v>
       </c>
@@ -6140,9 +6390,9 @@
       <c r="Q110" s="14"/>
       <c r="R110" s="18"/>
       <c r="S110" s="17"/>
-      <c r="T110" s="23"/>
-    </row>
-    <row r="111" spans="1:21" ht="15.75">
+      <c r="T110" s="25"/>
+    </row>
+    <row r="111" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>125</v>
       </c>
@@ -6164,9 +6414,9 @@
       <c r="Q111" s="14"/>
       <c r="R111" s="18"/>
       <c r="S111" s="17"/>
-      <c r="T111" s="23"/>
-    </row>
-    <row r="112" spans="1:21" ht="15.75">
+      <c r="T111" s="25"/>
+    </row>
+    <row r="112" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>126</v>
       </c>
@@ -6188,9 +6438,9 @@
       <c r="Q112" s="14"/>
       <c r="R112" s="18"/>
       <c r="S112" s="17"/>
-      <c r="T112" s="23"/>
-    </row>
-    <row r="113" spans="1:21">
+      <c r="T112" s="25"/>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>127</v>
       </c>
@@ -6212,9 +6462,9 @@
       <c r="Q113" s="9"/>
       <c r="R113" s="18"/>
       <c r="S113" s="17"/>
-      <c r="T113" s="23"/>
-    </row>
-    <row r="114" spans="1:21" ht="15" customHeight="1">
+      <c r="T113" s="25"/>
+    </row>
+    <row r="114" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>128</v>
       </c>
@@ -6240,9 +6490,9 @@
       <c r="S114" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="T114" s="23"/>
-    </row>
-    <row r="115" spans="1:21" ht="15" customHeight="1">
+      <c r="T114" s="25"/>
+    </row>
+    <row r="115" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>129</v>
       </c>
@@ -6268,9 +6518,9 @@
       <c r="S115" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="T115" s="23"/>
-    </row>
-    <row r="116" spans="1:21" ht="15" customHeight="1">
+      <c r="T115" s="25"/>
+    </row>
+    <row r="116" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>61</v>
       </c>
@@ -6296,12 +6546,12 @@
       <c r="S116" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="T116" s="23"/>
+      <c r="T116" s="25"/>
       <c r="U116" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="117" spans="1:21" ht="15" customHeight="1">
+    <row r="117" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>62</v>
       </c>
@@ -6327,12 +6577,12 @@
       <c r="S117" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="T117" s="23"/>
+      <c r="T117" s="25"/>
       <c r="U117" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="118" spans="1:21">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>63</v>
       </c>
@@ -6358,12 +6608,12 @@
       <c r="S118" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="T118" s="23"/>
+      <c r="T118" s="25"/>
       <c r="U118" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="119" spans="1:21">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>64</v>
       </c>
@@ -6384,9 +6634,9 @@
       <c r="P119" s="2"/>
       <c r="Q119" s="2"/>
       <c r="R119" s="2"/>
-      <c r="T119" s="23"/>
-    </row>
-    <row r="122" spans="1:21" ht="15.75">
+      <c r="T119" s="25"/>
+    </row>
+    <row r="122" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>0</v>
       </c>
@@ -6442,7 +6692,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="123" spans="1:21" ht="15.75">
+    <row r="123" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>130</v>
       </c>
@@ -6466,11 +6716,11 @@
         <v>164</v>
       </c>
       <c r="S123" s="17"/>
-      <c r="T123" s="23" t="s">
+      <c r="T123" s="25" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="124" spans="1:21" ht="15.75">
+    <row r="124" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>131</v>
       </c>
@@ -6492,9 +6742,9 @@
       <c r="Q124" s="14"/>
       <c r="R124" s="18"/>
       <c r="S124" s="17"/>
-      <c r="T124" s="23"/>
-    </row>
-    <row r="125" spans="1:21" ht="15.75">
+      <c r="T124" s="25"/>
+    </row>
+    <row r="125" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>132</v>
       </c>
@@ -6516,9 +6766,9 @@
       <c r="Q125" s="14"/>
       <c r="R125" s="18"/>
       <c r="S125" s="17"/>
-      <c r="T125" s="23"/>
-    </row>
-    <row r="126" spans="1:21" ht="15.75">
+      <c r="T125" s="25"/>
+    </row>
+    <row r="126" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>133</v>
       </c>
@@ -6540,9 +6790,9 @@
       <c r="Q126" s="14"/>
       <c r="R126" s="18"/>
       <c r="S126" s="17"/>
-      <c r="T126" s="23"/>
-    </row>
-    <row r="127" spans="1:21" ht="15.75">
+      <c r="T126" s="25"/>
+    </row>
+    <row r="127" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>134</v>
       </c>
@@ -6564,9 +6814,9 @@
       <c r="Q127" s="14"/>
       <c r="R127" s="18"/>
       <c r="S127" s="17"/>
-      <c r="T127" s="23"/>
-    </row>
-    <row r="128" spans="1:21" ht="15.75">
+      <c r="T127" s="25"/>
+    </row>
+    <row r="128" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>135</v>
       </c>
@@ -6588,9 +6838,9 @@
       <c r="Q128" s="14"/>
       <c r="R128" s="18"/>
       <c r="S128" s="17"/>
-      <c r="T128" s="23"/>
-    </row>
-    <row r="129" spans="1:21" ht="15.75" customHeight="1">
+      <c r="T128" s="25"/>
+    </row>
+    <row r="129" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>136</v>
       </c>
@@ -6612,9 +6862,9 @@
       <c r="Q129" s="14"/>
       <c r="R129" s="18"/>
       <c r="S129" s="17"/>
-      <c r="T129" s="23"/>
-    </row>
-    <row r="130" spans="1:21" ht="15" customHeight="1">
+      <c r="T129" s="25"/>
+    </row>
+    <row r="130" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>137</v>
       </c>
@@ -6636,9 +6886,9 @@
       <c r="Q130" s="9"/>
       <c r="R130" s="18"/>
       <c r="S130" s="17"/>
-      <c r="T130" s="23"/>
-    </row>
-    <row r="131" spans="1:21" ht="15" customHeight="1">
+      <c r="T130" s="25"/>
+    </row>
+    <row r="131" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>138</v>
       </c>
@@ -6664,9 +6914,9 @@
       <c r="S131" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="T131" s="23"/>
-    </row>
-    <row r="132" spans="1:21" ht="15" customHeight="1">
+      <c r="T131" s="25"/>
+    </row>
+    <row r="132" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>139</v>
       </c>
@@ -6692,9 +6942,9 @@
       <c r="S132" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="T132" s="23"/>
-    </row>
-    <row r="133" spans="1:21" ht="15" customHeight="1">
+      <c r="T132" s="25"/>
+    </row>
+    <row r="133" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>73</v>
       </c>
@@ -6720,12 +6970,12 @@
       <c r="S133" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="T133" s="23"/>
+      <c r="T133" s="25"/>
       <c r="U133" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="134" spans="1:21">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>74</v>
       </c>
@@ -6751,12 +7001,12 @@
       <c r="S134" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="T134" s="23"/>
+      <c r="T134" s="25"/>
       <c r="U134" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="135" spans="1:21">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>75</v>
       </c>
@@ -6779,12 +7029,12 @@
       <c r="R135" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="T135" s="23"/>
+      <c r="T135" s="25"/>
       <c r="U135" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="138" spans="1:21" ht="15.75">
+    <row r="138" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>0</v>
       </c>
@@ -6840,7 +7090,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="139" spans="1:21" ht="15.75">
+    <row r="139" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>140</v>
       </c>
@@ -6864,11 +7114,11 @@
         <v>164</v>
       </c>
       <c r="S139" s="17"/>
-      <c r="T139" s="26" t="s">
+      <c r="T139" s="22" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="140" spans="1:21" ht="15.75">
+    <row r="140" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>141</v>
       </c>
@@ -6890,9 +7140,9 @@
       <c r="Q140" s="14"/>
       <c r="R140" s="18"/>
       <c r="S140" s="17"/>
-      <c r="T140" s="27"/>
-    </row>
-    <row r="141" spans="1:21" ht="15.75">
+      <c r="T140" s="23"/>
+    </row>
+    <row r="141" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>142</v>
       </c>
@@ -6914,9 +7164,9 @@
       <c r="Q141" s="14"/>
       <c r="R141" s="18"/>
       <c r="S141" s="17"/>
-      <c r="T141" s="27"/>
-    </row>
-    <row r="142" spans="1:21" ht="15.75">
+      <c r="T141" s="23"/>
+    </row>
+    <row r="142" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>143</v>
       </c>
@@ -6938,9 +7188,9 @@
       <c r="Q142" s="14"/>
       <c r="R142" s="18"/>
       <c r="S142" s="17"/>
-      <c r="T142" s="27"/>
-    </row>
-    <row r="143" spans="1:21" ht="15.75">
+      <c r="T142" s="23"/>
+    </row>
+    <row r="143" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>144</v>
       </c>
@@ -6962,9 +7212,9 @@
       <c r="Q143" s="14"/>
       <c r="R143" s="18"/>
       <c r="S143" s="17"/>
-      <c r="T143" s="27"/>
-    </row>
-    <row r="144" spans="1:21" ht="15.75">
+      <c r="T143" s="23"/>
+    </row>
+    <row r="144" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>145</v>
       </c>
@@ -6986,9 +7236,9 @@
       <c r="Q144" s="14"/>
       <c r="R144" s="18"/>
       <c r="S144" s="17"/>
-      <c r="T144" s="27"/>
-    </row>
-    <row r="145" spans="1:20" ht="15.75">
+      <c r="T144" s="23"/>
+    </row>
+    <row r="145" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>146</v>
       </c>
@@ -7010,9 +7260,9 @@
       <c r="Q145" s="14"/>
       <c r="R145" s="18"/>
       <c r="S145" s="17"/>
-      <c r="T145" s="27"/>
-    </row>
-    <row r="146" spans="1:20" ht="17.25" customHeight="1">
+      <c r="T145" s="23"/>
+    </row>
+    <row r="146" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>147</v>
       </c>
@@ -7034,9 +7284,9 @@
       <c r="Q146" s="9"/>
       <c r="R146" s="18"/>
       <c r="S146" s="17"/>
-      <c r="T146" s="27"/>
-    </row>
-    <row r="147" spans="1:20">
+      <c r="T146" s="23"/>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>148</v>
       </c>
@@ -7062,9 +7312,9 @@
       <c r="S147" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="T147" s="27"/>
-    </row>
-    <row r="148" spans="1:20">
+      <c r="T147" s="23"/>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>149</v>
       </c>
@@ -7090,9 +7340,9 @@
       <c r="S148" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="T148" s="27"/>
-    </row>
-    <row r="149" spans="1:20">
+      <c r="T148" s="23"/>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -7111,9 +7361,9 @@
       <c r="P149" s="2"/>
       <c r="Q149" s="2"/>
       <c r="R149" s="2"/>
-      <c r="T149" s="27"/>
-    </row>
-    <row r="150" spans="1:20">
+      <c r="T149" s="23"/>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>76</v>
       </c>
@@ -7136,9 +7386,9 @@
       <c r="R150" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="T150" s="27"/>
-    </row>
-    <row r="151" spans="1:20">
+      <c r="T150" s="23"/>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>77</v>
       </c>
@@ -7161,9 +7411,9 @@
       <c r="R151" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="T151" s="27"/>
-    </row>
-    <row r="152" spans="1:20">
+      <c r="T151" s="23"/>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>78</v>
       </c>
@@ -7186,9 +7436,9 @@
       <c r="R152" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="T152" s="28"/>
-    </row>
-    <row r="155" spans="1:20" ht="15.75">
+      <c r="T152" s="24"/>
+    </row>
+    <row r="155" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>0</v>
       </c>
@@ -7244,7 +7494,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="156" spans="1:20" ht="15.75">
+    <row r="156" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>151</v>
       </c>
@@ -7268,11 +7518,11 @@
         <v>164</v>
       </c>
       <c r="S156" s="17"/>
-      <c r="T156" s="29" t="s">
+      <c r="T156" s="19" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="157" spans="1:20" ht="15.75">
+    <row r="157" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>152</v>
       </c>
@@ -7294,9 +7544,9 @@
       <c r="Q157" s="14"/>
       <c r="R157" s="18"/>
       <c r="S157" s="17"/>
-      <c r="T157" s="30"/>
-    </row>
-    <row r="158" spans="1:20" ht="15.75">
+      <c r="T157" s="20"/>
+    </row>
+    <row r="158" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>153</v>
       </c>
@@ -7318,9 +7568,9 @@
       <c r="Q158" s="14"/>
       <c r="R158" s="18"/>
       <c r="S158" s="17"/>
-      <c r="T158" s="30"/>
-    </row>
-    <row r="159" spans="1:20" ht="15.75">
+      <c r="T158" s="20"/>
+    </row>
+    <row r="159" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>154</v>
       </c>
@@ -7342,9 +7592,9 @@
       <c r="Q159" s="14"/>
       <c r="R159" s="18"/>
       <c r="S159" s="17"/>
-      <c r="T159" s="30"/>
-    </row>
-    <row r="160" spans="1:20" ht="15.75">
+      <c r="T159" s="20"/>
+    </row>
+    <row r="160" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>155</v>
       </c>
@@ -7366,9 +7616,9 @@
       <c r="Q160" s="14"/>
       <c r="R160" s="18"/>
       <c r="S160" s="17"/>
-      <c r="T160" s="30"/>
-    </row>
-    <row r="161" spans="1:20" ht="15.75">
+      <c r="T160" s="20"/>
+    </row>
+    <row r="161" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>156</v>
       </c>
@@ -7390,9 +7640,9 @@
       <c r="Q161" s="14"/>
       <c r="R161" s="18"/>
       <c r="S161" s="17"/>
-      <c r="T161" s="30"/>
-    </row>
-    <row r="162" spans="1:20" ht="15.75">
+      <c r="T161" s="20"/>
+    </row>
+    <row r="162" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>157</v>
       </c>
@@ -7414,9 +7664,9 @@
       <c r="Q162" s="14"/>
       <c r="R162" s="18"/>
       <c r="S162" s="17"/>
-      <c r="T162" s="30"/>
-    </row>
-    <row r="163" spans="1:20">
+      <c r="T162" s="20"/>
+    </row>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>158</v>
       </c>
@@ -7438,9 +7688,9 @@
       <c r="Q163" s="9"/>
       <c r="R163" s="18"/>
       <c r="S163" s="17"/>
-      <c r="T163" s="30"/>
-    </row>
-    <row r="164" spans="1:20">
+      <c r="T163" s="20"/>
+    </row>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>159</v>
       </c>
@@ -7466,9 +7716,9 @@
       <c r="S164" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="T164" s="30"/>
-    </row>
-    <row r="165" spans="1:20">
+      <c r="T164" s="20"/>
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>160</v>
       </c>
@@ -7494,9 +7744,9 @@
       <c r="S165" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="T165" s="30"/>
-    </row>
-    <row r="166" spans="1:20">
+      <c r="T165" s="20"/>
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -7515,9 +7765,9 @@
       <c r="P166" s="2"/>
       <c r="Q166" s="2"/>
       <c r="R166" s="2"/>
-      <c r="T166" s="30"/>
-    </row>
-    <row r="167" spans="1:20">
+      <c r="T166" s="20"/>
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>161</v>
       </c>
@@ -7540,9 +7790,9 @@
       <c r="R167" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="T167" s="30"/>
-    </row>
-    <row r="168" spans="1:20">
+      <c r="T167" s="20"/>
+    </row>
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>162</v>
       </c>
@@ -7565,9 +7815,9 @@
       <c r="R168" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="T168" s="30"/>
-    </row>
-    <row r="169" spans="1:20">
+      <c r="T168" s="20"/>
+    </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>163</v>
       </c>
@@ -7590,9 +7840,9 @@
       <c r="R169" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="T169" s="31"/>
-    </row>
-    <row r="173" spans="1:20" ht="15.75">
+      <c r="T169" s="21"/>
+    </row>
+    <row r="173" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>0</v>
       </c>
@@ -7648,7 +7898,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="174" spans="1:20" ht="15.75">
+    <row r="174" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>166</v>
       </c>
@@ -7672,11 +7922,11 @@
         <v>164</v>
       </c>
       <c r="S174" s="17"/>
-      <c r="T174" s="29" t="s">
+      <c r="T174" s="19" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="175" spans="1:20" ht="15.75">
+    <row r="175" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>168</v>
       </c>
@@ -7698,9 +7948,9 @@
       <c r="Q175" s="14"/>
       <c r="R175" s="18"/>
       <c r="S175" s="17"/>
-      <c r="T175" s="30"/>
-    </row>
-    <row r="176" spans="1:20" ht="15.75">
+      <c r="T175" s="20"/>
+    </row>
+    <row r="176" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>169</v>
       </c>
@@ -7722,9 +7972,9 @@
       <c r="Q176" s="14"/>
       <c r="R176" s="18"/>
       <c r="S176" s="17"/>
-      <c r="T176" s="30"/>
-    </row>
-    <row r="177" spans="1:21" ht="15.75">
+      <c r="T176" s="20"/>
+    </row>
+    <row r="177" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>170</v>
       </c>
@@ -7746,9 +7996,9 @@
       <c r="Q177" s="14"/>
       <c r="R177" s="18"/>
       <c r="S177" s="17"/>
-      <c r="T177" s="30"/>
-    </row>
-    <row r="178" spans="1:21" ht="15.75">
+      <c r="T177" s="20"/>
+    </row>
+    <row r="178" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>171</v>
       </c>
@@ -7770,9 +8020,9 @@
       <c r="Q178" s="14"/>
       <c r="R178" s="18"/>
       <c r="S178" s="17"/>
-      <c r="T178" s="30"/>
-    </row>
-    <row r="179" spans="1:21" ht="15.75">
+      <c r="T178" s="20"/>
+    </row>
+    <row r="179" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>172</v>
       </c>
@@ -7794,9 +8044,9 @@
       <c r="Q179" s="14"/>
       <c r="R179" s="18"/>
       <c r="S179" s="17"/>
-      <c r="T179" s="30"/>
-    </row>
-    <row r="180" spans="1:21" ht="15.75">
+      <c r="T179" s="20"/>
+    </row>
+    <row r="180" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>173</v>
       </c>
@@ -7818,9 +8068,9 @@
       <c r="Q180" s="14"/>
       <c r="R180" s="18"/>
       <c r="S180" s="17"/>
-      <c r="T180" s="30"/>
-    </row>
-    <row r="181" spans="1:21">
+      <c r="T180" s="20"/>
+    </row>
+    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>174</v>
       </c>
@@ -7842,9 +8092,9 @@
       <c r="Q181" s="9"/>
       <c r="R181" s="18"/>
       <c r="S181" s="17"/>
-      <c r="T181" s="30"/>
-    </row>
-    <row r="182" spans="1:21">
+      <c r="T181" s="20"/>
+    </row>
+    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>175</v>
       </c>
@@ -7870,9 +8120,9 @@
       <c r="S182" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="T182" s="30"/>
-    </row>
-    <row r="183" spans="1:21">
+      <c r="T182" s="20"/>
+    </row>
+    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>176</v>
       </c>
@@ -7898,9 +8148,9 @@
       <c r="S183" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="T183" s="30"/>
-    </row>
-    <row r="184" spans="1:21">
+      <c r="T183" s="20"/>
+    </row>
+    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -7919,9 +8169,9 @@
       <c r="P184" s="2"/>
       <c r="Q184" s="2"/>
       <c r="R184" s="2"/>
-      <c r="T184" s="30"/>
-    </row>
-    <row r="185" spans="1:21">
+      <c r="T184" s="20"/>
+    </row>
+    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>177</v>
       </c>
@@ -7944,12 +8194,12 @@
       <c r="R185" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="T185" s="30"/>
+      <c r="T185" s="20"/>
       <c r="U185" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="186" spans="1:21">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>178</v>
       </c>
@@ -7972,12 +8222,12 @@
       <c r="R186" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="T186" s="30"/>
+      <c r="T186" s="20"/>
       <c r="U186" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="187" spans="1:21">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>179</v>
       </c>
@@ -8000,26 +8250,13 @@
       <c r="R187" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="T187" s="31"/>
+      <c r="T187" s="21"/>
       <c r="U187" t="s">
         <v>79</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="R174:R181"/>
-    <mergeCell ref="T174:T187"/>
-    <mergeCell ref="R123:R130"/>
-    <mergeCell ref="R139:R146"/>
-    <mergeCell ref="R156:R163"/>
-    <mergeCell ref="T139:T152"/>
-    <mergeCell ref="T156:T169"/>
-    <mergeCell ref="T123:T135"/>
-    <mergeCell ref="R4:R11"/>
-    <mergeCell ref="R21:R28"/>
-    <mergeCell ref="R38:R45"/>
-    <mergeCell ref="R55:R62"/>
-    <mergeCell ref="T11:T17"/>
     <mergeCell ref="R72:R79"/>
     <mergeCell ref="R89:R96"/>
     <mergeCell ref="R106:R113"/>
@@ -8029,6 +8266,19 @@
     <mergeCell ref="T89:T102"/>
     <mergeCell ref="T106:T119"/>
     <mergeCell ref="T38:T51"/>
+    <mergeCell ref="R4:R11"/>
+    <mergeCell ref="R21:R28"/>
+    <mergeCell ref="R38:R45"/>
+    <mergeCell ref="R55:R62"/>
+    <mergeCell ref="T11:T17"/>
+    <mergeCell ref="R174:R181"/>
+    <mergeCell ref="T174:T187"/>
+    <mergeCell ref="R123:R130"/>
+    <mergeCell ref="R139:R146"/>
+    <mergeCell ref="R156:R163"/>
+    <mergeCell ref="T139:T152"/>
+    <mergeCell ref="T156:T169"/>
+    <mergeCell ref="T123:T135"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
